--- a/tests/topology_input_map_files/cell_data_test_file_2.xlsx
+++ b/tests/topology_input_map_files/cell_data_test_file_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calil\OneDrive\SHARC\Code\SHARC_SON\tests\topology_input_map_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bfaria/source/SHARC_SON/SHARC/tests/topology_input_map_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9A362454-5CF8-5846-B11D-F8D875B6314E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1335" yWindow="-17160" windowWidth="32595" windowHeight="12975"/>
+    <workbookView xWindow="-1260" yWindow="-11820" windowWidth="32600" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>strSiteID</t>
   </si>
@@ -54,9 +55,6 @@
     <t>dHeight</t>
   </si>
   <si>
-    <t>NodeType</t>
-  </si>
-  <si>
     <t>pattern</t>
   </si>
   <si>
@@ -97,12 +95,18 @@
   </si>
   <si>
     <t>DUMMY0040</t>
+  </si>
+  <si>
+    <t>dULCarrierMHz</t>
+  </si>
+  <si>
+    <t>BSCat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,33 +417,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,27 +475,30 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -518,27 +525,30 @@
         <v>2600</v>
       </c>
       <c r="K2">
+        <v>2600</v>
+      </c>
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -565,27 +575,30 @@
         <v>2601</v>
       </c>
       <c r="K3">
+        <v>2601</v>
+      </c>
+      <c r="L3">
         <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -612,27 +625,30 @@
         <v>2602</v>
       </c>
       <c r="K4">
+        <v>2602</v>
+      </c>
+      <c r="L4">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
         <v>7</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>55</v>
@@ -659,18 +675,21 @@
         <v>2603</v>
       </c>
       <c r="K5">
+        <v>2603</v>
+      </c>
+      <c r="L5">
         <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5">
         <v>8</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-3</v>
       </c>
     </row>
